--- a/ANOVA_CHI2 csv files/female and male abundance ANOVA.xlsx
+++ b/ANOVA_CHI2 csv files/female and male abundance ANOVA.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FHL Guest\Documents\GitHub\nereosisters\ANOVA csv files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FHL Guest\Documents\GitHub\nereosisters\ANOVA_CHI2 csv files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662DDA2A-F9A0-4314-B410-3DF372D37E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC94831-5D7A-4B1C-B846-A71A5A64353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12593" yWindow="780" windowWidth="14714" windowHeight="14453" activeTab="1"/>
+    <workbookView xWindow="1103" yWindow="960" windowWidth="14969" windowHeight="14453" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="female abundance ANOVA" sheetId="2" r:id="rId1"/>
     <sheet name="male abundance ANOVA" sheetId="3" r:id="rId2"/>
     <sheet name="summed-original-72" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>treat_well</t>
   </si>
@@ -310,12 +321,60 @@
   </si>
   <si>
     <t>female abundance in each treatment group</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Average female abundance</t>
+  </si>
+  <si>
+    <t>Average male abundance</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>std error</t>
+  </si>
+  <si>
+    <t>Abs difference</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>q_tukey</t>
+  </si>
+  <si>
+    <t>10 vs 13</t>
+  </si>
+  <si>
+    <t>10 vs 15</t>
+  </si>
+  <si>
+    <t>10 vs 18</t>
+  </si>
+  <si>
+    <t>13 vs 15</t>
+  </si>
+  <si>
+    <t>13 vs 18</t>
+  </si>
+  <si>
+    <t>15 vs 18</t>
+  </si>
+  <si>
+    <t>critical value (based on df=68, n=4, and alpha of 0.05)</t>
+  </si>
+  <si>
+    <t>critical value (based on df= 68, n=4, and alpha of 0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -821,13 +880,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -884,6 +944,1246 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ale and female gametophyte counts per treatment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1259096675415573"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summed-original-72'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average female abundance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'summed-original-72'!$R$10:$R$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.3784173147319401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.763834207376394</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.242958804242928</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6339297131628308</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'summed-original-72'!$R$10:$R$13</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>1.3784173147319401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.763834207376394</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.242958804242928</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6339297131628308</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'summed-original-72'!$O$2:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'summed-original-72'!$P$2:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.111111111111114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F485-4856-B20D-4F6A0722F7AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'summed-original-72'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average male abundance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>'summed-original-72'!$O$2:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'summed-original-72'!$Q$2:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.055555555555557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.055555555555557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F485-4856-B20D-4F6A0722F7AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="636849136"/>
+        <c:axId val="636829584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="636849136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> treatment</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40250568678915133"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636829584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636829584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gametophyte</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> abundance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636849136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F9CF45-CC4F-4E7A-BD8C-E33BF6D5ACA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,14 +2482,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1234,7 +2537,7 @@
         <v>347</v>
       </c>
       <c r="D5" s="1">
-        <v>19.277777777777779</v>
+        <v>19.2777777777778</v>
       </c>
       <c r="E5" s="1">
         <v>36.21241830065361</v>
@@ -1383,20 +2686,140 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <f>ABS(D5-D6)</f>
+        <v>6.0555555555555323</v>
+      </c>
+      <c r="C20">
+        <f>SQRT(D14/B6)</f>
+        <v>2.1200468781213537</v>
+      </c>
+      <c r="D20">
+        <f>B20/C20</f>
+        <v>2.8563309698706134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <f>ABS(D5-D7)</f>
+        <v>11.388888888888868</v>
+      </c>
+      <c r="C21">
+        <v>2.1200468781213537</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:D25" si="0">B21/C21</f>
+        <v>5.3719986130594215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <f>ABS(D5-D8)</f>
+        <v>15.833333333333314</v>
+      </c>
+      <c r="C22">
+        <v>2.1200468781213537</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4683883157167612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <f>ABS(D6-D7)</f>
+        <v>5.3333333333333357</v>
+      </c>
+      <c r="C23">
+        <v>2.1200468781213537</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.5156676431888076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24">
+        <f>ABS(D6-D8)</f>
+        <v>9.7777777777777821</v>
+      </c>
+      <c r="C24">
+        <v>2.1200468781213537</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6120573458461473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <f>ABS(D7-D8)</f>
+        <v>4.4444444444444464</v>
+      </c>
+      <c r="C25">
+        <v>2.1200468781213537</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.0963897026573397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1585,22 +3008,142 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <f>ABS(D5-D6)</f>
+        <v>13.5</v>
+      </c>
+      <c r="C20">
+        <f>SQRT(D14/B6)</f>
+        <v>2.6759014254330658</v>
+      </c>
+      <c r="D20" s="4">
+        <f>B20/C20</f>
+        <v>5.0450288907092951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <f>ABS(D5-D7)</f>
+        <v>16.055555555555557</v>
+      </c>
+      <c r="C21">
+        <v>2.6759014254330658</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:D25" si="0">B21/C21</f>
+        <v>6.0000549358641413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22">
+        <f>ABS(D5-D8)</f>
+        <v>11.055555555555557</v>
+      </c>
+      <c r="C22">
+        <v>2.6759014254330658</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1315257170829209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <f>ABS(D6-D7)</f>
+        <v>2.5555555555555571</v>
+      </c>
+      <c r="C23">
+        <v>2.6759014254330658</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.95502604515484646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24">
+        <f>ABS(D6-D8)</f>
+        <v>2.4444444444444429</v>
+      </c>
+      <c r="C24">
+        <v>2.6759014254330658</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.91350317362637379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <f>ABS(D7-D8)</f>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>2.6759014254330658</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.8685292187812201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:L40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="15" max="15" width="11.265625" customWidth="1"/>
+    <col min="16" max="16" width="22.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1628,8 +3171,17 @@
       <c r="M1">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1660,8 +3212,23 @@
       <c r="M2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(C2:C19)</f>
+        <v>19.277777777777779</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(D2:D19)</f>
+        <v>25</v>
+      </c>
+      <c r="U2">
+        <f>SQRT(18)</f>
+        <v>4.2426406871192848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1692,8 +3259,19 @@
       <c r="M3">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(C20:C37)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE(D20:D37)</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1724,8 +3302,19 @@
       <c r="M4">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(C38:C55)</f>
+        <v>30.666666666666668</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGE(D38:D55)</f>
+        <v>41.055555555555557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1756,8 +3345,19 @@
       <c r="M5">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(C56:C73)</f>
+        <v>35.111111111111114</v>
+      </c>
+      <c r="Q5">
+        <f>AVERAGE(D56:D73)</f>
+        <v>36.055555555555557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1789,7 +3389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1821,7 +3421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1853,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1884,8 +3484,20 @@
       <c r="M9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1916,8 +3528,23 @@
       <c r="M10">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE(C10:C27)</f>
+        <v>23.166666666666668</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.STDEV.P(C2:C19)</f>
+        <v>5.8481293833114378</v>
+      </c>
+      <c r="R10">
+        <f>Q10/U2</f>
+        <v>1.3784173147319401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1948,8 +3575,23 @@
       <c r="M11">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE(C28:C45)</f>
+        <v>23.388888888888889</v>
+      </c>
+      <c r="Q11">
+        <f>_xlfn.STDEV.P(C20:C37)</f>
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="R11">
+        <f>Q11/U2</f>
+        <v>1.763834207376394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1980,8 +3622,23 @@
       <c r="M12">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(C46:C63)</f>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="Q12">
+        <f>_xlfn.STDEV.P(C38:C55)</f>
+        <v>9.5160682824134657</v>
+      </c>
+      <c r="R12">
+        <f>Q12/U2</f>
+        <v>2.242958804242928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2012,8 +3669,23 @@
       <c r="M13">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(C64:C81)</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="Q13">
+        <f>_xlfn.STDEV.P(C56:C73)</f>
+        <v>11.174817368077052</v>
+      </c>
+      <c r="R13">
+        <f>Q13/U2</f>
+        <v>2.6339297131628308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2044,8 +3716,11 @@
       <c r="M14">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2076,8 +3751,23 @@
       <c r="M15">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <f>AVERAGE(C15:C32)</f>
+        <v>23.888888888888889</v>
+      </c>
+      <c r="Q15">
+        <f>_xlfn.STDEV.P(D2:D19)</f>
+        <v>11.69995251652283</v>
+      </c>
+      <c r="R15">
+        <f>Q15/U2</f>
+        <v>2.7577052546646352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2108,8 +3798,23 @@
       <c r="M16">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <f>AVERAGE(C33:C50)</f>
+        <v>27.222222222222221</v>
+      </c>
+      <c r="Q16">
+        <f>_xlfn.STDEV.P(D20:D37)</f>
+        <v>12.854960132182441</v>
+      </c>
+      <c r="R16">
+        <f>Q16/U2</f>
+        <v>3.029943160449641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2140,8 +3845,23 @@
       <c r="M17">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <f>AVERAGE(C51:C68)</f>
+        <v>34.388888888888886</v>
+      </c>
+      <c r="Q17">
+        <f>_xlfn.STDEV.P(D38:D55)</f>
+        <v>8.2695708757550292</v>
+      </c>
+      <c r="R17">
+        <f>Q17/U2</f>
+        <v>1.9491565479163862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2172,8 +3892,23 @@
       <c r="M18">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O18">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <f>AVERAGE(C69:C86)</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="Q18">
+        <f>_xlfn.STDEV.P(D56:D73)</f>
+        <v>10.788225176975859</v>
+      </c>
+      <c r="R18">
+        <f>Q18/U2</f>
+        <v>2.5428090598690241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2205,7 +3940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2225,7 +3960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2245,7 +3980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2277,7 +4012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2309,7 +4044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2341,7 +4076,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2373,7 +4108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2405,7 +4140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2437,7 +4172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2469,7 +4204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2501,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2533,7 +4268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2565,7 +4300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3515,5 +5250,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>